--- a/Output_Omar/example.xlsx
+++ b/Output_Omar/example.xlsx
@@ -33,7 +33,7 @@
     <t>energy_levels</t>
   </si>
   <si>
-    <t>Netehrlands</t>
+    <t>Netherlands</t>
   </si>
   <si>
     <t>Switzerland</t>
